--- a/Data/investments_in_privatized_companies.xlsx
+++ b/Data/investments_in_privatized_companies.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2175" windowWidth="15600" windowHeight="9240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="2180" windowWidth="15600" windowHeight="9240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="invest" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Data source - data is taken from official annual summary reports of the State Property Fund of Ukraine for the relevant years (1992 to 2016). http://www.spfu.gov.ua/ru/documents/docs-list/spf-reports.html</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">1995-2002 </t>
   </si>
@@ -37,17 +39,29 @@
     <t>million UAH</t>
   </si>
   <si>
-    <t>milliom USD</t>
+    <t>Investments in privatized companies</t>
   </si>
   <si>
-    <t>Investments in privatized companies</t>
+    <t xml:space="preserve">Data source - data is taken from official annual summary report of the State Property Fund of Ukraine for 2015.  </t>
+  </si>
+  <si>
+    <t>http://www.spfu.gov.ua/ru/documents/press-list/spf-reports/7389.html</t>
+  </si>
+  <si>
+    <t>pages 24-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data in USD was calculated on the base of the currency exchange rate for the relevant year  </t>
+  </si>
+  <si>
+    <t>million USD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,6 +124,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,12 +150,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -143,9 +169,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -414,36 +442,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4620</v>
@@ -452,7 +480,7 @@
         <v>1026.666667</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -463,7 +491,7 @@
         <v>121.8181818</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
@@ -474,7 +502,7 @@
         <v>96.363636360000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2005</v>
       </c>
@@ -485,7 +513,7 @@
         <v>209.9009901</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2006</v>
       </c>
@@ -496,7 +524,7 @@
         <v>239.60396040000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2007</v>
       </c>
@@ -507,7 +535,7 @@
         <v>259.40594060000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -518,7 +546,7 @@
         <v>63.75</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -529,7 +557,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -540,7 +568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -551,7 +579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -562,7 +590,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -573,7 +601,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2014</v>
       </c>
@@ -584,7 +612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -601,18 +629,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="58.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -623,7 +654,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -634,9 +665,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -647,20 +678,24 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -669,7 +704,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -680,7 +715,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -691,7 +726,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -702,7 +737,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -713,7 +748,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -724,7 +759,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -735,7 +770,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -746,7 +781,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -757,7 +792,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -768,7 +803,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -779,7 +814,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -790,7 +825,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -802,6 +837,9 @@
       <c r="I17" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>